--- a/data/movies_countries.xlsx
+++ b/data/movies_countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catarina Ramos\Documents\FEUP\DAPI\FEUP_DAPI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C29FDE-E1EE-4C93-B86D-1DA70B0ABED3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34D5615-CD1B-4169-BC1A-CC95B18AA58A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="980">
   <si>
     <t>title</t>
   </si>
@@ -2967,12 +2967,6 @@
   </si>
   <si>
     <t>Cyprus</t>
-  </si>
-  <si>
-    <t>UnitedStates</t>
-  </si>
-  <si>
-    <t>UnitedKingdom</t>
   </si>
 </sst>
 </file>
@@ -3357,7 +3351,7 @@
   <dimension ref="A1:F1094"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3427,7 +3421,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -3441,7 +3435,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -3511,7 +3505,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -3525,7 +3519,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2">
         <v>6</v>
@@ -3539,7 +3533,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2">
         <v>7</v>
@@ -3553,7 +3547,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2">
         <v>8</v>
@@ -3609,7 +3603,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2">
         <v>10</v>
@@ -3651,7 +3645,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2">
         <v>13</v>
@@ -3665,7 +3659,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2">
         <v>14</v>
@@ -3679,7 +3673,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2">
         <v>15</v>
@@ -3693,7 +3687,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2">
         <v>16</v>
@@ -3707,7 +3701,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2">
         <v>17</v>
@@ -3721,7 +3715,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2">
         <v>18</v>
@@ -3735,7 +3729,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2">
         <v>19</v>
@@ -3749,7 +3743,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2">
         <v>20</v>
@@ -3763,7 +3757,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2">
         <v>21</v>
@@ -3777,7 +3771,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2">
         <v>22</v>
@@ -3791,7 +3785,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2">
         <v>23</v>
@@ -3805,7 +3799,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2">
         <v>24</v>
@@ -3819,7 +3813,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2">
         <v>25</v>
@@ -3833,7 +3827,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2">
         <v>26</v>
@@ -3847,7 +3841,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2">
         <v>27</v>
@@ -3861,7 +3855,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2">
         <v>28</v>
@@ -3875,7 +3869,7 @@
         <v>9</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2">
         <v>29</v>
@@ -3889,7 +3883,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2">
         <v>30</v>
@@ -3903,7 +3897,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2">
         <v>31</v>
@@ -3917,7 +3911,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2">
         <v>32</v>
@@ -3931,7 +3925,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2">
         <v>33</v>
@@ -3945,7 +3939,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2">
         <v>34</v>
@@ -3973,7 +3967,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2">
         <v>36</v>
@@ -3987,7 +3981,7 @@
         <v>18</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2">
         <v>37</v>
@@ -4001,7 +3995,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2">
         <v>38</v>
@@ -4015,7 +4009,7 @@
         <v>57</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2">
         <v>39</v>
@@ -4029,7 +4023,7 @@
         <v>57</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2">
         <v>39</v>
@@ -4043,7 +4037,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2">
         <v>40</v>
@@ -4057,7 +4051,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2">
         <v>41</v>
@@ -4113,7 +4107,7 @@
         <v>9</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2">
         <v>43</v>
@@ -4127,7 +4121,7 @@
         <v>9</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2">
         <v>44</v>
@@ -4141,7 +4135,7 @@
         <v>9</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2">
         <v>45</v>
@@ -4155,7 +4149,7 @@
         <v>9</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2">
         <v>46</v>
@@ -4169,7 +4163,7 @@
         <v>9</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2">
         <v>47</v>
@@ -4183,7 +4177,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2">
         <v>48</v>
@@ -4197,7 +4191,7 @@
         <v>9</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2">
         <v>49</v>
@@ -4225,7 +4219,7 @@
         <v>9</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2">
         <v>51</v>
@@ -4239,7 +4233,7 @@
         <v>9</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2">
         <v>52</v>
@@ -4253,7 +4247,7 @@
         <v>9</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2">
         <v>53</v>
@@ -4267,7 +4261,7 @@
         <v>9</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2">
         <v>54</v>
@@ -4281,7 +4275,7 @@
         <v>9</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2">
         <v>55</v>
@@ -4295,7 +4289,7 @@
         <v>9</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2">
         <v>56</v>
@@ -4309,7 +4303,7 @@
         <v>9</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2">
         <v>57</v>
@@ -4323,7 +4317,7 @@
         <v>9</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2">
         <v>58</v>
@@ -4351,7 +4345,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2">
         <v>59</v>
@@ -4365,7 +4359,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2">
         <v>60</v>
@@ -4393,7 +4387,7 @@
         <v>9</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2">
         <v>62</v>
@@ -4407,7 +4401,7 @@
         <v>88</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2">
         <v>63</v>
@@ -4435,7 +4429,7 @@
         <v>57</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2">
         <v>64</v>
@@ -4449,7 +4443,7 @@
         <v>57</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2">
         <v>64</v>
@@ -4477,7 +4471,7 @@
         <v>57</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2">
         <v>66</v>
@@ -4491,7 +4485,7 @@
         <v>57</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2">
         <v>66</v>
@@ -4505,7 +4499,7 @@
         <v>9</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2">
         <v>67</v>
@@ -4547,7 +4541,7 @@
         <v>9</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2">
         <v>69</v>
@@ -4561,7 +4555,7 @@
         <v>9</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2">
         <v>70</v>
@@ -4575,7 +4569,7 @@
         <v>9</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2">
         <v>71</v>
@@ -4589,7 +4583,7 @@
         <v>9</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2">
         <v>72</v>
@@ -4603,7 +4597,7 @@
         <v>9</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2">
         <v>73</v>
@@ -4645,7 +4639,7 @@
         <v>9</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2">
         <v>75</v>
@@ -4659,7 +4653,7 @@
         <v>9</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2">
         <v>76</v>
@@ -4673,7 +4667,7 @@
         <v>18</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D94" s="2">
         <v>77</v>
@@ -4743,7 +4737,7 @@
         <v>9</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2">
         <v>79</v>
@@ -4799,7 +4793,7 @@
         <v>9</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2">
         <v>83</v>
@@ -4813,7 +4807,7 @@
         <v>120</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D104" s="2">
         <v>84</v>
@@ -4841,7 +4835,7 @@
         <v>57</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2">
         <v>85</v>
@@ -4855,7 +4849,7 @@
         <v>57</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D107" s="2">
         <v>85</v>
@@ -4869,7 +4863,7 @@
         <v>9</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2">
         <v>86</v>
@@ -4883,7 +4877,7 @@
         <v>57</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2">
         <v>87</v>
@@ -4897,7 +4891,7 @@
         <v>57</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D110" s="2">
         <v>87</v>
@@ -4911,7 +4905,7 @@
         <v>57</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2">
         <v>88</v>
@@ -4925,7 +4919,7 @@
         <v>57</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D112" s="2">
         <v>88</v>
@@ -4939,7 +4933,7 @@
         <v>9</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2">
         <v>89</v>
@@ -4981,7 +4975,7 @@
         <v>9</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2">
         <v>91</v>
@@ -4995,7 +4989,7 @@
         <v>9</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2">
         <v>92</v>
@@ -5009,7 +5003,7 @@
         <v>9</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2">
         <v>93</v>
@@ -5023,7 +5017,7 @@
         <v>9</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2">
         <v>94</v>
@@ -5051,7 +5045,7 @@
         <v>9</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2">
         <v>96</v>
@@ -5065,7 +5059,7 @@
         <v>9</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2">
         <v>97</v>
@@ -5093,7 +5087,7 @@
         <v>136</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D124" s="2">
         <v>98</v>
@@ -5149,7 +5143,7 @@
         <v>140</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2">
         <v>99</v>
@@ -5177,7 +5171,7 @@
         <v>9</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2">
         <v>100</v>
@@ -5191,7 +5185,7 @@
         <v>9</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2">
         <v>101</v>
@@ -5219,7 +5213,7 @@
         <v>9</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2">
         <v>103</v>
@@ -5233,7 +5227,7 @@
         <v>9</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2">
         <v>104</v>
@@ -5247,7 +5241,7 @@
         <v>9</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2">
         <v>105</v>
@@ -5261,7 +5255,7 @@
         <v>9</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2">
         <v>106</v>
@@ -5275,7 +5269,7 @@
         <v>9</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2">
         <v>107</v>
@@ -5289,7 +5283,7 @@
         <v>9</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2">
         <v>108</v>
@@ -5303,7 +5297,7 @@
         <v>9</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2">
         <v>109</v>
@@ -5317,7 +5311,7 @@
         <v>9</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2">
         <v>110</v>
@@ -5331,7 +5325,7 @@
         <v>9</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2">
         <v>111</v>
@@ -5345,7 +5339,7 @@
         <v>9</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2">
         <v>112</v>
@@ -5373,7 +5367,7 @@
         <v>88</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2">
         <v>114</v>
@@ -5443,7 +5437,7 @@
         <v>160</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D149" s="2">
         <v>116</v>
@@ -5485,7 +5479,7 @@
         <v>9</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2">
         <v>117</v>
@@ -5499,7 +5493,7 @@
         <v>9</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2">
         <v>118</v>
@@ -5513,7 +5507,7 @@
         <v>9</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2">
         <v>119</v>
@@ -5527,7 +5521,7 @@
         <v>166</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2">
         <v>120</v>
@@ -5541,7 +5535,7 @@
         <v>166</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D156" s="2">
         <v>120</v>
@@ -5569,7 +5563,7 @@
         <v>57</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2">
         <v>121</v>
@@ -5583,7 +5577,7 @@
         <v>57</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D159" s="2">
         <v>121</v>
@@ -5597,7 +5591,7 @@
         <v>9</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2">
         <v>122</v>
@@ -5611,7 +5605,7 @@
         <v>9</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2">
         <v>123</v>
@@ -5625,7 +5619,7 @@
         <v>9</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2">
         <v>124</v>
@@ -5653,7 +5647,7 @@
         <v>57</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2">
         <v>126</v>
@@ -5667,7 +5661,7 @@
         <v>57</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D165" s="2">
         <v>126</v>
@@ -5681,7 +5675,7 @@
         <v>9</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2">
         <v>127</v>
@@ -5695,7 +5689,7 @@
         <v>9</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2">
         <v>128</v>
@@ -5709,7 +5703,7 @@
         <v>177</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D168" s="2">
         <v>129</v>
@@ -5779,7 +5773,7 @@
         <v>9</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2">
         <v>131</v>
@@ -5793,7 +5787,7 @@
         <v>120</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D174" s="2">
         <v>132</v>
@@ -5835,7 +5829,7 @@
         <v>9</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2">
         <v>134</v>
@@ -5849,7 +5843,7 @@
         <v>9</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2">
         <v>135</v>
@@ -5863,7 +5857,7 @@
         <v>9</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2">
         <v>136</v>
@@ -5877,7 +5871,7 @@
         <v>9</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2">
         <v>137</v>
@@ -5891,7 +5885,7 @@
         <v>9</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2">
         <v>138</v>
@@ -5905,7 +5899,7 @@
         <v>9</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2">
         <v>139</v>
@@ -5919,7 +5913,7 @@
         <v>9</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2">
         <v>140</v>
@@ -5933,7 +5927,7 @@
         <v>9</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2">
         <v>141</v>
@@ -5947,7 +5941,7 @@
         <v>9</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2">
         <v>142</v>
@@ -5961,7 +5955,7 @@
         <v>9</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2">
         <v>143</v>
@@ -5975,7 +5969,7 @@
         <v>9</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2">
         <v>144</v>
@@ -5989,7 +5983,7 @@
         <v>9</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2">
         <v>145</v>
@@ -6003,7 +5997,7 @@
         <v>9</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2">
         <v>146</v>
@@ -6017,7 +6011,7 @@
         <v>9</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2">
         <v>147</v>
@@ -6031,7 +6025,7 @@
         <v>9</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2">
         <v>148</v>
@@ -6045,7 +6039,7 @@
         <v>9</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2">
         <v>149</v>
@@ -6059,7 +6053,7 @@
         <v>9</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2">
         <v>150</v>
@@ -6087,7 +6081,7 @@
         <v>9</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2">
         <v>152</v>
@@ -6101,7 +6095,7 @@
         <v>9</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2">
         <v>153</v>
@@ -6115,7 +6109,7 @@
         <v>9</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2">
         <v>154</v>
@@ -6129,7 +6123,7 @@
         <v>207</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D198" s="2">
         <v>155</v>
@@ -6171,7 +6165,7 @@
         <v>9</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2">
         <v>156</v>
@@ -6185,7 +6179,7 @@
         <v>9</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2">
         <v>157</v>
@@ -6199,7 +6193,7 @@
         <v>18</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D203" s="2">
         <v>158</v>
@@ -6213,7 +6207,7 @@
         <v>9</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2">
         <v>159</v>
@@ -6227,7 +6221,7 @@
         <v>9</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2">
         <v>160</v>
@@ -6241,7 +6235,7 @@
         <v>9</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2">
         <v>161</v>
@@ -6255,7 +6249,7 @@
         <v>9</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2">
         <v>162</v>
@@ -6269,7 +6263,7 @@
         <v>120</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D208" s="2">
         <v>163</v>
@@ -6297,7 +6291,7 @@
         <v>9</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2">
         <v>164</v>
@@ -6311,7 +6305,7 @@
         <v>9</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2">
         <v>165</v>
@@ -6325,7 +6319,7 @@
         <v>9</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2">
         <v>166</v>
@@ -6367,7 +6361,7 @@
         <v>9</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2">
         <v>168</v>
@@ -6381,7 +6375,7 @@
         <v>9</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2">
         <v>169</v>
@@ -6395,7 +6389,7 @@
         <v>9</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2">
         <v>170</v>
@@ -6409,7 +6403,7 @@
         <v>9</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2">
         <v>171</v>
@@ -6423,7 +6417,7 @@
         <v>226</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2">
         <v>172</v>
@@ -6465,7 +6459,7 @@
         <v>9</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2">
         <v>174</v>
@@ -6479,7 +6473,7 @@
         <v>231</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2">
         <v>175</v>
@@ -6507,7 +6501,7 @@
         <v>9</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D225" s="2">
         <v>176</v>
@@ -6521,7 +6515,7 @@
         <v>9</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2">
         <v>177</v>
@@ -6535,7 +6529,7 @@
         <v>9</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2">
         <v>178</v>
@@ -6549,7 +6543,7 @@
         <v>88</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2">
         <v>179</v>
@@ -6577,7 +6571,7 @@
         <v>9</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D230" s="2">
         <v>180</v>
@@ -6591,7 +6585,7 @@
         <v>9</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D231" s="2">
         <v>181</v>
@@ -6605,7 +6599,7 @@
         <v>9</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D232" s="2">
         <v>182</v>
@@ -6619,7 +6613,7 @@
         <v>9</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2">
         <v>183</v>
@@ -6703,7 +6697,7 @@
         <v>9</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2">
         <v>186</v>
@@ -6717,7 +6711,7 @@
         <v>9</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D240" s="2">
         <v>187</v>
@@ -6731,7 +6725,7 @@
         <v>9</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D241" s="2">
         <v>188</v>
@@ -6745,7 +6739,7 @@
         <v>9</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D242" s="2">
         <v>189</v>
@@ -6759,7 +6753,7 @@
         <v>9</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D243" s="2">
         <v>190</v>
@@ -6773,7 +6767,7 @@
         <v>9</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D244" s="2">
         <v>191</v>
@@ -6787,7 +6781,7 @@
         <v>9</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D245" s="2">
         <v>192</v>
@@ -6801,7 +6795,7 @@
         <v>9</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D246" s="2">
         <v>193</v>
@@ -6815,7 +6809,7 @@
         <v>9</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D247" s="2">
         <v>194</v>
@@ -6829,7 +6823,7 @@
         <v>9</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D248" s="2">
         <v>195</v>
@@ -6843,7 +6837,7 @@
         <v>9</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D249" s="2">
         <v>196</v>
@@ -6857,7 +6851,7 @@
         <v>9</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D250" s="2">
         <v>197</v>
@@ -6871,7 +6865,7 @@
         <v>9</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D251" s="2">
         <v>198</v>
@@ -6899,7 +6893,7 @@
         <v>258</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D253" s="2">
         <v>199</v>
@@ -6927,7 +6921,7 @@
         <v>9</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D255" s="2">
         <v>200</v>
@@ -6941,7 +6935,7 @@
         <v>9</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D256" s="2">
         <v>201</v>
@@ -6969,7 +6963,7 @@
         <v>9</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D258" s="2">
         <v>203</v>
@@ -6983,7 +6977,7 @@
         <v>9</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D259" s="2">
         <v>204</v>
@@ -6997,7 +6991,7 @@
         <v>9</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D260" s="2">
         <v>205</v>
@@ -7011,7 +7005,7 @@
         <v>266</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D261" s="2">
         <v>206</v>
@@ -7039,7 +7033,7 @@
         <v>9</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D263" s="2">
         <v>207</v>
@@ -7067,7 +7061,7 @@
         <v>270</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D265" s="2">
         <v>209</v>
@@ -7109,7 +7103,7 @@
         <v>9</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D268" s="2">
         <v>211</v>
@@ -7137,7 +7131,7 @@
         <v>274</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D270" s="2">
         <v>212</v>
@@ -7165,7 +7159,7 @@
         <v>18</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D272" s="2">
         <v>213</v>
@@ -7179,7 +7173,7 @@
         <v>9</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D273" s="2">
         <v>214</v>
@@ -7193,7 +7187,7 @@
         <v>9</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D274" s="2">
         <v>215</v>
@@ -7207,7 +7201,7 @@
         <v>9</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D275" s="2">
         <v>216</v>
@@ -7221,7 +7215,7 @@
         <v>9</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D276" s="2">
         <v>217</v>
@@ -7235,7 +7229,7 @@
         <v>9</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D277" s="2">
         <v>218</v>
@@ -7249,7 +7243,7 @@
         <v>18</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D278" s="2">
         <v>219</v>
@@ -7263,7 +7257,7 @@
         <v>9</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D279" s="2">
         <v>220</v>
@@ -7277,7 +7271,7 @@
         <v>9</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D280" s="2">
         <v>221</v>
@@ -7291,7 +7285,7 @@
         <v>9</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D281" s="2">
         <v>222</v>
@@ -7305,7 +7299,7 @@
         <v>9</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D282" s="2">
         <v>223</v>
@@ -7319,7 +7313,7 @@
         <v>9</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D283" s="2">
         <v>224</v>
@@ -7333,7 +7327,7 @@
         <v>9</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D284" s="2">
         <v>225</v>
@@ -7347,7 +7341,7 @@
         <v>9</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D285" s="2">
         <v>226</v>
@@ -7361,7 +7355,7 @@
         <v>9</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D286" s="2">
         <v>227</v>
@@ -7375,7 +7369,7 @@
         <v>9</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D287" s="2">
         <v>228</v>
@@ -7389,7 +7383,7 @@
         <v>9</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D288" s="2">
         <v>229</v>
@@ -7403,7 +7397,7 @@
         <v>9</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D289" s="2">
         <v>230</v>
@@ -7417,7 +7411,7 @@
         <v>9</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D290" s="2">
         <v>231</v>
@@ -7431,7 +7425,7 @@
         <v>9</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D291" s="2">
         <v>232</v>
@@ -7459,7 +7453,7 @@
         <v>9</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D293" s="2">
         <v>234</v>
@@ -7473,7 +7467,7 @@
         <v>9</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D294" s="2">
         <v>235</v>
@@ -7487,7 +7481,7 @@
         <v>9</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D295" s="2">
         <v>236</v>
@@ -7501,7 +7495,7 @@
         <v>9</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D296" s="2">
         <v>237</v>
@@ -7515,7 +7509,7 @@
         <v>9</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D297" s="2">
         <v>238</v>
@@ -7529,7 +7523,7 @@
         <v>302</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D298" s="2">
         <v>239</v>
@@ -7571,7 +7565,7 @@
         <v>57</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D301" s="2">
         <v>240</v>
@@ -7585,7 +7579,7 @@
         <v>57</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D302" s="2">
         <v>240</v>
@@ -7627,7 +7621,7 @@
         <v>9</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D305" s="2">
         <v>242</v>
@@ -7641,7 +7635,7 @@
         <v>18</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D306" s="2">
         <v>243</v>
@@ -7655,7 +7649,7 @@
         <v>9</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D307" s="2">
         <v>244</v>
@@ -7669,7 +7663,7 @@
         <v>9</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D308" s="2">
         <v>245</v>
@@ -7683,7 +7677,7 @@
         <v>9</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D309" s="2">
         <v>246</v>
@@ -7697,7 +7691,7 @@
         <v>9</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D310" s="2">
         <v>247</v>
@@ -7711,7 +7705,7 @@
         <v>9</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D311" s="2">
         <v>248</v>
@@ -7753,7 +7747,7 @@
         <v>9</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D314" s="2">
         <v>251</v>
@@ -7781,7 +7775,7 @@
         <v>9</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D316" s="2">
         <v>253</v>
@@ -7795,7 +7789,7 @@
         <v>226</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D317" s="2">
         <v>254</v>
@@ -7837,7 +7831,7 @@
         <v>9</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D320" s="2">
         <v>256</v>
@@ -7851,7 +7845,7 @@
         <v>9</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D321" s="2">
         <v>257</v>
@@ -7865,7 +7859,7 @@
         <v>9</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D322" s="2">
         <v>258</v>
@@ -7879,7 +7873,7 @@
         <v>9</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D323" s="2">
         <v>259</v>
@@ -7893,7 +7887,7 @@
         <v>325</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D324" s="2">
         <v>260</v>
@@ -7921,7 +7915,7 @@
         <v>9</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D326" s="2">
         <v>261</v>
@@ -7935,7 +7929,7 @@
         <v>18</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D327" s="2">
         <v>262</v>
@@ -7949,7 +7943,7 @@
         <v>9</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D328" s="2">
         <v>263</v>
@@ -7963,7 +7957,7 @@
         <v>330</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D329" s="2">
         <v>264</v>
@@ -7991,7 +7985,7 @@
         <v>9</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D331" s="2">
         <v>265</v>
@@ -8005,7 +7999,7 @@
         <v>9</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D332" s="2">
         <v>266</v>
@@ -8019,7 +8013,7 @@
         <v>9</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D333" s="2">
         <v>267</v>
@@ -8033,7 +8027,7 @@
         <v>9</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D334" s="2">
         <v>268</v>
@@ -8047,7 +8041,7 @@
         <v>9</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D335" s="2">
         <v>269</v>
@@ -8061,7 +8055,7 @@
         <v>9</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D336" s="2">
         <v>270</v>
@@ -8075,7 +8069,7 @@
         <v>9</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D337" s="2">
         <v>271</v>
@@ -8089,7 +8083,7 @@
         <v>9</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D338" s="2">
         <v>272</v>
@@ -8103,7 +8097,7 @@
         <v>9</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D339" s="2">
         <v>273</v>
@@ -8117,7 +8111,7 @@
         <v>341</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D340" s="2">
         <v>274</v>
@@ -8131,7 +8125,7 @@
         <v>341</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D341" s="2">
         <v>274</v>
@@ -8159,7 +8153,7 @@
         <v>9</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D343" s="2">
         <v>275</v>
@@ -8173,7 +8167,7 @@
         <v>9</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D344" s="2">
         <v>276</v>
@@ -8187,7 +8181,7 @@
         <v>9</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D345" s="2">
         <v>277</v>
@@ -8201,7 +8195,7 @@
         <v>9</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D346" s="2">
         <v>278</v>
@@ -8229,7 +8223,7 @@
         <v>9</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D348" s="2">
         <v>280</v>
@@ -8243,7 +8237,7 @@
         <v>9</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D349" s="2">
         <v>281</v>
@@ -8285,7 +8279,7 @@
         <v>82</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D352" s="2">
         <v>283</v>
@@ -8299,7 +8293,7 @@
         <v>9</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D353" s="2">
         <v>284</v>
@@ -8313,7 +8307,7 @@
         <v>9</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D354" s="2">
         <v>285</v>
@@ -8327,7 +8321,7 @@
         <v>9</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D355" s="2">
         <v>286</v>
@@ -8341,7 +8335,7 @@
         <v>166</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D356" s="2">
         <v>287</v>
@@ -8355,7 +8349,7 @@
         <v>166</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D357" s="2">
         <v>287</v>
@@ -8383,7 +8377,7 @@
         <v>9</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D359" s="2">
         <v>288</v>
@@ -8397,7 +8391,7 @@
         <v>9</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D360" s="2">
         <v>289</v>
@@ -8411,7 +8405,7 @@
         <v>9</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D361" s="2">
         <v>290</v>
@@ -8425,7 +8419,7 @@
         <v>9</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D362" s="2">
         <v>291</v>
@@ -8453,7 +8447,7 @@
         <v>361</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D364" s="2">
         <v>292</v>
@@ -8509,7 +8503,7 @@
         <v>9</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D368" s="2">
         <v>293</v>
@@ -8523,7 +8517,7 @@
         <v>9</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D369" s="2">
         <v>294</v>
@@ -8537,7 +8531,7 @@
         <v>9</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D370" s="2">
         <v>295</v>
@@ -8551,7 +8545,7 @@
         <v>9</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D371" s="2">
         <v>296</v>
@@ -8565,7 +8559,7 @@
         <v>9</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D372" s="2">
         <v>297</v>
@@ -8579,7 +8573,7 @@
         <v>9</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D373" s="2">
         <v>298</v>
@@ -8593,7 +8587,7 @@
         <v>9</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D374" s="2">
         <v>299</v>
@@ -8607,7 +8601,7 @@
         <v>9</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D375" s="2">
         <v>300</v>
@@ -8621,7 +8615,7 @@
         <v>372</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D376" s="2">
         <v>301</v>
@@ -8649,7 +8643,7 @@
         <v>9</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D378" s="2">
         <v>302</v>
@@ -8663,7 +8657,7 @@
         <v>9</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D379" s="2">
         <v>303</v>
@@ -8677,7 +8671,7 @@
         <v>18</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D380" s="2">
         <v>304</v>
@@ -8691,7 +8685,7 @@
         <v>9</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D381" s="2">
         <v>305</v>
@@ -8705,7 +8699,7 @@
         <v>9</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D382" s="2">
         <v>306</v>
@@ -8719,7 +8713,7 @@
         <v>9</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D383" s="2">
         <v>307</v>
@@ -8733,7 +8727,7 @@
         <v>9</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D384" s="2">
         <v>308</v>
@@ -8747,7 +8741,7 @@
         <v>9</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D385" s="2">
         <v>309</v>
@@ -8761,7 +8755,7 @@
         <v>9</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D386" s="2">
         <v>310</v>
@@ -8775,7 +8769,7 @@
         <v>9</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D387" s="2">
         <v>311</v>
@@ -8789,7 +8783,7 @@
         <v>372</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D388" s="2">
         <v>312</v>
@@ -8817,7 +8811,7 @@
         <v>9</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D390" s="2">
         <v>313</v>
@@ -8831,7 +8825,7 @@
         <v>9</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D391" s="2">
         <v>314</v>
@@ -8845,7 +8839,7 @@
         <v>9</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D392" s="2">
         <v>315</v>
@@ -8859,7 +8853,7 @@
         <v>9</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D393" s="2">
         <v>316</v>
@@ -8887,7 +8881,7 @@
         <v>9</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D395" s="2">
         <v>318</v>
@@ -8901,7 +8895,7 @@
         <v>9</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D396" s="2">
         <v>319</v>
@@ -8915,7 +8909,7 @@
         <v>9</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D397" s="2">
         <v>320</v>
@@ -8929,7 +8923,7 @@
         <v>18</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D398" s="2">
         <v>321</v>
@@ -8943,7 +8937,7 @@
         <v>9</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D399" s="2">
         <v>322</v>
@@ -8957,7 +8951,7 @@
         <v>18</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D400" s="2">
         <v>323</v>
@@ -8971,7 +8965,7 @@
         <v>9</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D401" s="2">
         <v>324</v>
@@ -8985,7 +8979,7 @@
         <v>397</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D402" s="2">
         <v>325</v>
@@ -9013,7 +9007,7 @@
         <v>9</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D404" s="2">
         <v>326</v>
@@ -9027,7 +9021,7 @@
         <v>18</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D405" s="2">
         <v>327</v>
@@ -9055,7 +9049,7 @@
         <v>57</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D407" s="2">
         <v>329</v>
@@ -9069,7 +9063,7 @@
         <v>57</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D408" s="2">
         <v>329</v>
@@ -9083,7 +9077,7 @@
         <v>57</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D409" s="2">
         <v>330</v>
@@ -9097,7 +9091,7 @@
         <v>57</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D410" s="2">
         <v>330</v>
@@ -9111,7 +9105,7 @@
         <v>9</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D411" s="2">
         <v>331</v>
@@ -9125,7 +9119,7 @@
         <v>9</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D412" s="2">
         <v>332</v>
@@ -9139,7 +9133,7 @@
         <v>9</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D413" s="2">
         <v>333</v>
@@ -9153,7 +9147,7 @@
         <v>407</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D414" s="2">
         <v>334</v>
@@ -9181,7 +9175,7 @@
         <v>407</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D416" s="2">
         <v>334</v>
@@ -9195,7 +9189,7 @@
         <v>9</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D417" s="2">
         <v>335</v>
@@ -9209,7 +9203,7 @@
         <v>9</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D418" s="2">
         <v>336</v>
@@ -9223,7 +9217,7 @@
         <v>9</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D419" s="2">
         <v>337</v>
@@ -9237,7 +9231,7 @@
         <v>9</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D420" s="2">
         <v>338</v>
@@ -9251,7 +9245,7 @@
         <v>9</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D421" s="2">
         <v>339</v>
@@ -9265,7 +9259,7 @@
         <v>9</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D422" s="2">
         <v>340</v>
@@ -9279,7 +9273,7 @@
         <v>9</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D423" s="2">
         <v>341</v>
@@ -9293,7 +9287,7 @@
         <v>9</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D424" s="2">
         <v>342</v>
@@ -9307,7 +9301,7 @@
         <v>9</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D425" s="2">
         <v>343</v>
@@ -9349,7 +9343,7 @@
         <v>418</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D428" s="2">
         <v>344</v>
@@ -9377,7 +9371,7 @@
         <v>420</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D430" s="2">
         <v>345</v>
@@ -9391,7 +9385,7 @@
         <v>420</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D431" s="2">
         <v>345</v>
@@ -9433,7 +9427,7 @@
         <v>9</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D434" s="2">
         <v>346</v>
@@ -9447,7 +9441,7 @@
         <v>9</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D435" s="2">
         <v>347</v>
@@ -9503,7 +9497,7 @@
         <v>274</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D439" s="2">
         <v>349</v>
@@ -9531,7 +9525,7 @@
         <v>9</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D441" s="2">
         <v>350</v>
@@ -9545,7 +9539,7 @@
         <v>9</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D442" s="2">
         <v>351</v>
@@ -9559,7 +9553,7 @@
         <v>9</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D443" s="2">
         <v>352</v>
@@ -9573,7 +9567,7 @@
         <v>9</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D444" s="2">
         <v>353</v>
@@ -9587,7 +9581,7 @@
         <v>420</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D445" s="2">
         <v>354</v>
@@ -9601,7 +9595,7 @@
         <v>420</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D446" s="2">
         <v>354</v>
@@ -9643,7 +9637,7 @@
         <v>9</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D449" s="2">
         <v>355</v>
@@ -9671,7 +9665,7 @@
         <v>9</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D451" s="2">
         <v>357</v>
@@ -9685,7 +9679,7 @@
         <v>9</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D452" s="2">
         <v>358</v>
@@ -9699,7 +9693,7 @@
         <v>9</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D453" s="2">
         <v>359</v>
@@ -9713,7 +9707,7 @@
         <v>438</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D454" s="2">
         <v>360</v>
@@ -9741,7 +9735,7 @@
         <v>9</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D456" s="2">
         <v>361</v>
@@ -9755,7 +9749,7 @@
         <v>9</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D457" s="2">
         <v>362</v>
@@ -9769,7 +9763,7 @@
         <v>442</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D458" s="2">
         <v>363</v>
@@ -9867,7 +9861,7 @@
         <v>9</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D465" s="2">
         <v>365</v>
@@ -9909,7 +9903,7 @@
         <v>57</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D468" s="2">
         <v>367</v>
@@ -9923,7 +9917,7 @@
         <v>57</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D469" s="2">
         <v>367</v>
@@ -9937,7 +9931,7 @@
         <v>9</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D470" s="2">
         <v>368</v>
@@ -9951,7 +9945,7 @@
         <v>270</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D471" s="2">
         <v>369</v>
@@ -9979,7 +9973,7 @@
         <v>9</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D473" s="2">
         <v>370</v>
@@ -9993,7 +9987,7 @@
         <v>9</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D474" s="2">
         <v>371</v>
@@ -10021,7 +10015,7 @@
         <v>9</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D476" s="2">
         <v>373</v>
@@ -10035,7 +10029,7 @@
         <v>9</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D477" s="2">
         <v>374</v>
@@ -10049,7 +10043,7 @@
         <v>9</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D478" s="2">
         <v>375</v>
@@ -10063,7 +10057,7 @@
         <v>9</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D479" s="2">
         <v>376</v>
@@ -10105,7 +10099,7 @@
         <v>463</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D482" s="2">
         <v>378</v>
@@ -10119,7 +10113,7 @@
         <v>463</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D483" s="2">
         <v>378</v>
@@ -10147,7 +10141,7 @@
         <v>465</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D485" s="2">
         <v>379</v>
@@ -10189,7 +10183,7 @@
         <v>9</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D488" s="2">
         <v>380</v>
@@ -10203,7 +10197,7 @@
         <v>57</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D489" s="2">
         <v>381</v>
@@ -10217,7 +10211,7 @@
         <v>57</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D490" s="2">
         <v>381</v>
@@ -10231,7 +10225,7 @@
         <v>18</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D491" s="2">
         <v>382</v>
@@ -10245,7 +10239,7 @@
         <v>9</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D492" s="2">
         <v>383</v>
@@ -10259,7 +10253,7 @@
         <v>9</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D493" s="2">
         <v>384</v>
@@ -10273,7 +10267,7 @@
         <v>9</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D494" s="2">
         <v>385</v>
@@ -10315,7 +10309,7 @@
         <v>9</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D497" s="2">
         <v>387</v>
@@ -10329,7 +10323,7 @@
         <v>9</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D498" s="2">
         <v>388</v>
@@ -10343,7 +10337,7 @@
         <v>9</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D499" s="2">
         <v>389</v>
@@ -10357,7 +10351,7 @@
         <v>9</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D500" s="2">
         <v>390</v>
@@ -10371,7 +10365,7 @@
         <v>9</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D501" s="2">
         <v>391</v>
@@ -10385,7 +10379,7 @@
         <v>9</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D502" s="2">
         <v>392</v>
@@ -10399,7 +10393,7 @@
         <v>9</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D503" s="2">
         <v>393</v>
@@ -10413,7 +10407,7 @@
         <v>9</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D504" s="2">
         <v>394</v>
@@ -10427,7 +10421,7 @@
         <v>9</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D505" s="2">
         <v>395</v>
@@ -10441,7 +10435,7 @@
         <v>9</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D506" s="2">
         <v>396</v>
@@ -10455,7 +10449,7 @@
         <v>9</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D507" s="2">
         <v>397</v>
@@ -10469,7 +10463,7 @@
         <v>485</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D508" s="2">
         <v>398</v>
@@ -10525,7 +10519,7 @@
         <v>488</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D512" s="2">
         <v>399</v>
@@ -10567,7 +10561,7 @@
         <v>491</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D515" s="2">
         <v>400</v>
@@ -10595,7 +10589,7 @@
         <v>372</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D517" s="2">
         <v>401</v>
@@ -10623,7 +10617,7 @@
         <v>9</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D519" s="2">
         <v>402</v>
@@ -10637,7 +10631,7 @@
         <v>9</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D520" s="2">
         <v>403</v>
@@ -10651,7 +10645,7 @@
         <v>9</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D521" s="2">
         <v>404</v>
@@ -10665,7 +10659,7 @@
         <v>9</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D522" s="2">
         <v>405</v>
@@ -10679,7 +10673,7 @@
         <v>9</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D523" s="2">
         <v>406</v>
@@ -10693,7 +10687,7 @@
         <v>9</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D524" s="2">
         <v>407</v>
@@ -10707,7 +10701,7 @@
         <v>9</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D525" s="2">
         <v>408</v>
@@ -10721,7 +10715,7 @@
         <v>266</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D526" s="2">
         <v>409</v>
@@ -10749,7 +10743,7 @@
         <v>9</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D528" s="2">
         <v>410</v>
@@ -10763,7 +10757,7 @@
         <v>9</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D529" s="2">
         <v>411</v>
@@ -10777,7 +10771,7 @@
         <v>9</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D530" s="2">
         <v>412</v>
@@ -10791,7 +10785,7 @@
         <v>9</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D531" s="2">
         <v>413</v>
@@ -10819,7 +10813,7 @@
         <v>507</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D533" s="2">
         <v>414</v>
@@ -10833,7 +10827,7 @@
         <v>9</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D534" s="2">
         <v>415</v>
@@ -10847,7 +10841,7 @@
         <v>9</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D535" s="2">
         <v>416</v>
@@ -10861,7 +10855,7 @@
         <v>9</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D536" s="2">
         <v>417</v>
@@ -10875,7 +10869,7 @@
         <v>9</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D537" s="2">
         <v>418</v>
@@ -10903,7 +10897,7 @@
         <v>9</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D539" s="2">
         <v>420</v>
@@ -10917,7 +10911,7 @@
         <v>9</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D540" s="2">
         <v>421</v>
@@ -10931,7 +10925,7 @@
         <v>9</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D541" s="2">
         <v>422</v>
@@ -10945,7 +10939,7 @@
         <v>18</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D542" s="2">
         <v>423</v>
@@ -10959,7 +10953,7 @@
         <v>9</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D543" s="2">
         <v>424</v>
@@ -10973,7 +10967,7 @@
         <v>57</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D544" s="2">
         <v>425</v>
@@ -10987,7 +10981,7 @@
         <v>57</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D545" s="2">
         <v>425</v>
@@ -11001,7 +10995,7 @@
         <v>9</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D546" s="2">
         <v>426</v>
@@ -11015,7 +11009,7 @@
         <v>9</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D547" s="2">
         <v>427</v>
@@ -11029,7 +11023,7 @@
         <v>9</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D548" s="2">
         <v>428</v>
@@ -11043,7 +11037,7 @@
         <v>9</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D549" s="2">
         <v>429</v>
@@ -11057,7 +11051,7 @@
         <v>9</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D550" s="2">
         <v>430</v>
@@ -11071,7 +11065,7 @@
         <v>525</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D551" s="2">
         <v>431</v>
@@ -11085,7 +11079,7 @@
         <v>525</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D552" s="2">
         <v>431</v>
@@ -11127,7 +11121,7 @@
         <v>9</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D555" s="2">
         <v>432</v>
@@ -11141,7 +11135,7 @@
         <v>9</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D556" s="2">
         <v>433</v>
@@ -11155,7 +11149,7 @@
         <v>9</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D557" s="2">
         <v>434</v>
@@ -11169,7 +11163,7 @@
         <v>57</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D558" s="2">
         <v>435</v>
@@ -11183,7 +11177,7 @@
         <v>57</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D559" s="2">
         <v>435</v>
@@ -11197,7 +11191,7 @@
         <v>9</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D560" s="2">
         <v>436</v>
@@ -11211,7 +11205,7 @@
         <v>9</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D561" s="2">
         <v>437</v>
@@ -11225,7 +11219,7 @@
         <v>9</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D562" s="2">
         <v>438</v>
@@ -11239,7 +11233,7 @@
         <v>9</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D563" s="2">
         <v>439</v>
@@ -11253,7 +11247,7 @@
         <v>9</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D564" s="2">
         <v>440</v>
@@ -11267,7 +11261,7 @@
         <v>9</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D565" s="2">
         <v>441</v>
@@ -11281,7 +11275,7 @@
         <v>9</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D566" s="2">
         <v>442</v>
@@ -11295,7 +11289,7 @@
         <v>9</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D567" s="2">
         <v>443</v>
@@ -11309,7 +11303,7 @@
         <v>9</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D568" s="2">
         <v>444</v>
@@ -11323,7 +11317,7 @@
         <v>9</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D569" s="2">
         <v>445</v>
@@ -11337,7 +11331,7 @@
         <v>9</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D570" s="2">
         <v>446</v>
@@ -11351,7 +11345,7 @@
         <v>9</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D571" s="2">
         <v>447</v>
@@ -11365,7 +11359,7 @@
         <v>9</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D572" s="2">
         <v>448</v>
@@ -11379,7 +11373,7 @@
         <v>9</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D573" s="2">
         <v>449</v>
@@ -11393,7 +11387,7 @@
         <v>545</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D574" s="2">
         <v>450</v>
@@ -11407,7 +11401,7 @@
         <v>545</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D575" s="2">
         <v>450</v>
@@ -11435,7 +11429,7 @@
         <v>9</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D577" s="2">
         <v>451</v>
@@ -11449,7 +11443,7 @@
         <v>9</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D578" s="2">
         <v>452</v>
@@ -11463,7 +11457,7 @@
         <v>9</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D579" s="2">
         <v>453</v>
@@ -11477,7 +11471,7 @@
         <v>9</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D580" s="2">
         <v>454</v>
@@ -11491,7 +11485,7 @@
         <v>9</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D581" s="2">
         <v>455</v>
@@ -11505,7 +11499,7 @@
         <v>9</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D582" s="2">
         <v>456</v>
@@ -11547,7 +11541,7 @@
         <v>226</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D585" s="2">
         <v>459</v>
@@ -11575,7 +11569,7 @@
         <v>9</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D587" s="2">
         <v>460</v>
@@ -11589,7 +11583,7 @@
         <v>9</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D588" s="2">
         <v>461</v>
@@ -11603,7 +11597,7 @@
         <v>9</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D589" s="2">
         <v>462</v>
@@ -11617,7 +11611,7 @@
         <v>9</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D590" s="2">
         <v>463</v>
@@ -11631,7 +11625,7 @@
         <v>9</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D591" s="2">
         <v>464</v>
@@ -11645,7 +11639,7 @@
         <v>18</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D592" s="2">
         <v>465</v>
@@ -11659,7 +11653,7 @@
         <v>9</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D593" s="2">
         <v>466</v>
@@ -11687,7 +11681,7 @@
         <v>9</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D595" s="2">
         <v>468</v>
@@ -11743,7 +11737,7 @@
         <v>568</v>
       </c>
       <c r="C599" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D599" s="2">
         <v>470</v>
@@ -11771,7 +11765,7 @@
         <v>9</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D601" s="2">
         <v>471</v>
@@ -11785,7 +11779,7 @@
         <v>9</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D602" s="2">
         <v>472</v>
@@ -11799,7 +11793,7 @@
         <v>9</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D603" s="2">
         <v>473</v>
@@ -11813,7 +11807,7 @@
         <v>9</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D604" s="2">
         <v>474</v>
@@ -11827,7 +11821,7 @@
         <v>9</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D605" s="2">
         <v>475</v>
@@ -11841,7 +11835,7 @@
         <v>57</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D606" s="2">
         <v>476</v>
@@ -11855,7 +11849,7 @@
         <v>57</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D607" s="2">
         <v>476</v>
@@ -11897,7 +11891,7 @@
         <v>231</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D610" s="2">
         <v>478</v>
@@ -11939,7 +11933,7 @@
         <v>9</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D613" s="2">
         <v>480</v>
@@ -11953,7 +11947,7 @@
         <v>9</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D614" s="2">
         <v>481</v>
@@ -11967,7 +11961,7 @@
         <v>9</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D615" s="2">
         <v>482</v>
@@ -11981,7 +11975,7 @@
         <v>9</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D616" s="2">
         <v>483</v>
@@ -12009,7 +12003,7 @@
         <v>582</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D618" s="2">
         <v>484</v>
@@ -12065,7 +12059,7 @@
         <v>9</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D622" s="2">
         <v>485</v>
@@ -12079,7 +12073,7 @@
         <v>57</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D623" s="2">
         <v>486</v>
@@ -12093,7 +12087,7 @@
         <v>57</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D624" s="2">
         <v>486</v>
@@ -12107,7 +12101,7 @@
         <v>18</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D625" s="2">
         <v>487</v>
@@ -12121,7 +12115,7 @@
         <v>9</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D626" s="2">
         <v>488</v>
@@ -12135,7 +12129,7 @@
         <v>57</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D627" s="2">
         <v>489</v>
@@ -12149,7 +12143,7 @@
         <v>57</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D628" s="2">
         <v>489</v>
@@ -12163,7 +12157,7 @@
         <v>9</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D629" s="2">
         <v>490</v>
@@ -12191,7 +12185,7 @@
         <v>591</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D631" s="2">
         <v>491</v>
@@ -12275,7 +12269,7 @@
         <v>9</v>
       </c>
       <c r="C637" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D637" s="2">
         <v>493</v>
@@ -12289,7 +12283,7 @@
         <v>9</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D638" s="2">
         <v>494</v>
@@ -12303,7 +12297,7 @@
         <v>9</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D639" s="2">
         <v>495</v>
@@ -12317,7 +12311,7 @@
         <v>9</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D640" s="2">
         <v>496</v>
@@ -12331,7 +12325,7 @@
         <v>9</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D641" s="2">
         <v>497</v>
@@ -12345,7 +12339,7 @@
         <v>9</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D642" s="2">
         <v>498</v>
@@ -12359,7 +12353,7 @@
         <v>9</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D643" s="2">
         <v>499</v>
@@ -12373,7 +12367,7 @@
         <v>9</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D644" s="2">
         <v>500</v>
@@ -12387,7 +12381,7 @@
         <v>9</v>
       </c>
       <c r="C645" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D645" s="2">
         <v>501</v>
@@ -12401,7 +12395,7 @@
         <v>372</v>
       </c>
       <c r="C646" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D646" s="2">
         <v>502</v>
@@ -12429,7 +12423,7 @@
         <v>57</v>
       </c>
       <c r="C648" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D648" s="2">
         <v>503</v>
@@ -12443,7 +12437,7 @@
         <v>57</v>
       </c>
       <c r="C649" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D649" s="2">
         <v>503</v>
@@ -12457,7 +12451,7 @@
         <v>9</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D650" s="2">
         <v>504</v>
@@ -12471,7 +12465,7 @@
         <v>9</v>
       </c>
       <c r="C651" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D651" s="2">
         <v>505</v>
@@ -12485,7 +12479,7 @@
         <v>9</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D652" s="2">
         <v>506</v>
@@ -12499,7 +12493,7 @@
         <v>9</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D653" s="2">
         <v>507</v>
@@ -12513,7 +12507,7 @@
         <v>57</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D654" s="2">
         <v>508</v>
@@ -12527,7 +12521,7 @@
         <v>57</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D655" s="2">
         <v>508</v>
@@ -12541,7 +12535,7 @@
         <v>9</v>
       </c>
       <c r="C656" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D656" s="2">
         <v>509</v>
@@ -12555,7 +12549,7 @@
         <v>9</v>
       </c>
       <c r="C657" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D657" s="2">
         <v>510</v>
@@ -12569,7 +12563,7 @@
         <v>9</v>
       </c>
       <c r="C658" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D658" s="2">
         <v>511</v>
@@ -12583,7 +12577,7 @@
         <v>9</v>
       </c>
       <c r="C659" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D659" s="2">
         <v>512</v>
@@ -12597,7 +12591,7 @@
         <v>9</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D660" s="2">
         <v>513</v>
@@ -12611,7 +12605,7 @@
         <v>9</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D661" s="2">
         <v>514</v>
@@ -12625,7 +12619,7 @@
         <v>9</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D662" s="2">
         <v>515</v>
@@ -12639,7 +12633,7 @@
         <v>9</v>
       </c>
       <c r="C663" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D663" s="2">
         <v>516</v>
@@ -12653,7 +12647,7 @@
         <v>9</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D664" s="2">
         <v>517</v>
@@ -12667,7 +12661,7 @@
         <v>9</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D665" s="2">
         <v>518</v>
@@ -12681,7 +12675,7 @@
         <v>270</v>
       </c>
       <c r="C666" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D666" s="2">
         <v>519</v>
@@ -12709,7 +12703,7 @@
         <v>9</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D668" s="2">
         <v>520</v>
@@ -12723,7 +12717,7 @@
         <v>9</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D669" s="2">
         <v>521</v>
@@ -12737,7 +12731,7 @@
         <v>9</v>
       </c>
       <c r="C670" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D670" s="2">
         <v>522</v>
@@ -12751,7 +12745,7 @@
         <v>9</v>
       </c>
       <c r="C671" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D671" s="2">
         <v>523</v>
@@ -12765,7 +12759,7 @@
         <v>18</v>
       </c>
       <c r="C672" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D672" s="2">
         <v>524</v>
@@ -12779,7 +12773,7 @@
         <v>9</v>
       </c>
       <c r="C673" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D673" s="2">
         <v>525</v>
@@ -12793,7 +12787,7 @@
         <v>9</v>
       </c>
       <c r="C674" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D674" s="2">
         <v>526</v>
@@ -12807,7 +12801,7 @@
         <v>9</v>
       </c>
       <c r="C675" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D675" s="2">
         <v>527</v>
@@ -12821,7 +12815,7 @@
         <v>9</v>
       </c>
       <c r="C676" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D676" s="2">
         <v>528</v>
@@ -12835,7 +12829,7 @@
         <v>270</v>
       </c>
       <c r="C677" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D677" s="2">
         <v>529</v>
@@ -12863,7 +12857,7 @@
         <v>9</v>
       </c>
       <c r="C679" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D679" s="2">
         <v>530</v>
@@ -12877,7 +12871,7 @@
         <v>9</v>
       </c>
       <c r="C680" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D680" s="2">
         <v>531</v>
@@ -12891,7 +12885,7 @@
         <v>9</v>
       </c>
       <c r="C681" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D681" s="2">
         <v>532</v>
@@ -12905,7 +12899,7 @@
         <v>9</v>
       </c>
       <c r="C682" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D682" s="2">
         <v>533</v>
@@ -12919,7 +12913,7 @@
         <v>636</v>
       </c>
       <c r="C683" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D683" s="2">
         <v>534</v>
@@ -12975,7 +12969,7 @@
         <v>9</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D687" s="2">
         <v>536</v>
@@ -13031,7 +13025,7 @@
         <v>231</v>
       </c>
       <c r="C691" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D691" s="2">
         <v>538</v>
@@ -13059,7 +13053,7 @@
         <v>9</v>
       </c>
       <c r="C693" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D693" s="2">
         <v>539</v>
@@ -13073,7 +13067,7 @@
         <v>9</v>
       </c>
       <c r="C694" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D694" s="2">
         <v>540</v>
@@ -13087,7 +13081,7 @@
         <v>9</v>
       </c>
       <c r="C695" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D695" s="2">
         <v>541</v>
@@ -13101,7 +13095,7 @@
         <v>9</v>
       </c>
       <c r="C696" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D696" s="2">
         <v>542</v>
@@ -13115,7 +13109,7 @@
         <v>9</v>
       </c>
       <c r="C697" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D697" s="2">
         <v>543</v>
@@ -13129,7 +13123,7 @@
         <v>9</v>
       </c>
       <c r="C698" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D698" s="2">
         <v>544</v>
@@ -13143,7 +13137,7 @@
         <v>9</v>
       </c>
       <c r="C699" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D699" s="2">
         <v>545</v>
@@ -13157,7 +13151,7 @@
         <v>9</v>
       </c>
       <c r="C700" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D700" s="2">
         <v>546</v>
@@ -13171,7 +13165,7 @@
         <v>57</v>
       </c>
       <c r="C701" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D701" s="2">
         <v>547</v>
@@ -13185,7 +13179,7 @@
         <v>57</v>
       </c>
       <c r="C702" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D702" s="2">
         <v>547</v>
@@ -13199,7 +13193,7 @@
         <v>9</v>
       </c>
       <c r="C703" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D703" s="2">
         <v>548</v>
@@ -13227,7 +13221,7 @@
         <v>653</v>
       </c>
       <c r="C705" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D705" s="2">
         <v>549</v>
@@ -13255,7 +13249,7 @@
         <v>655</v>
       </c>
       <c r="C707" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D707" s="2">
         <v>550</v>
@@ -13269,7 +13263,7 @@
         <v>655</v>
       </c>
       <c r="C708" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D708" s="2">
         <v>550</v>
@@ -13297,7 +13291,7 @@
         <v>9</v>
       </c>
       <c r="C710" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D710" s="2">
         <v>551</v>
@@ -13311,7 +13305,7 @@
         <v>9</v>
       </c>
       <c r="C711" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D711" s="2">
         <v>552</v>
@@ -13339,7 +13333,7 @@
         <v>653</v>
       </c>
       <c r="C713" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D713" s="2">
         <v>553</v>
@@ -13367,7 +13361,7 @@
         <v>9</v>
       </c>
       <c r="C715" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D715" s="2">
         <v>554</v>
@@ -13381,7 +13375,7 @@
         <v>9</v>
       </c>
       <c r="C716" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D716" s="2">
         <v>555</v>
@@ -13395,7 +13389,7 @@
         <v>9</v>
       </c>
       <c r="C717" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D717" s="2">
         <v>556</v>
@@ -13423,7 +13417,7 @@
         <v>9</v>
       </c>
       <c r="C719" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D719" s="2">
         <v>558</v>
@@ -13465,7 +13459,7 @@
         <v>9</v>
       </c>
       <c r="C722" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D722" s="2">
         <v>560</v>
@@ -13479,7 +13473,7 @@
         <v>9</v>
       </c>
       <c r="C723" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D723" s="2">
         <v>561</v>
@@ -13493,7 +13487,7 @@
         <v>9</v>
       </c>
       <c r="C724" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D724" s="2">
         <v>562</v>
@@ -13507,7 +13501,7 @@
         <v>9</v>
       </c>
       <c r="C725" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D725" s="2">
         <v>563</v>
@@ -13535,7 +13529,7 @@
         <v>226</v>
       </c>
       <c r="C727" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D727" s="2">
         <v>565</v>
@@ -13563,7 +13557,7 @@
         <v>57</v>
       </c>
       <c r="C729" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D729" s="2">
         <v>566</v>
@@ -13577,7 +13571,7 @@
         <v>57</v>
       </c>
       <c r="C730" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D730" s="2">
         <v>566</v>
@@ -13591,7 +13585,7 @@
         <v>9</v>
       </c>
       <c r="C731" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D731" s="2">
         <v>567</v>
@@ -13605,7 +13599,7 @@
         <v>372</v>
       </c>
       <c r="C732" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D732" s="2">
         <v>568</v>
@@ -13633,7 +13627,7 @@
         <v>9</v>
       </c>
       <c r="C734" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D734" s="2">
         <v>569</v>
@@ -13647,7 +13641,7 @@
         <v>9</v>
       </c>
       <c r="C735" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D735" s="2">
         <v>570</v>
@@ -13661,7 +13655,7 @@
         <v>18</v>
       </c>
       <c r="C736" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D736" s="2">
         <v>571</v>
@@ -13675,7 +13669,7 @@
         <v>9</v>
       </c>
       <c r="C737" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D737" s="2">
         <v>572</v>
@@ -13689,7 +13683,7 @@
         <v>9</v>
       </c>
       <c r="C738" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D738" s="2">
         <v>573</v>
@@ -13703,7 +13697,7 @@
         <v>9</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D739" s="2">
         <v>574</v>
@@ -13745,7 +13739,7 @@
         <v>9</v>
       </c>
       <c r="C742" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D742" s="2">
         <v>576</v>
@@ -13759,7 +13753,7 @@
         <v>9</v>
       </c>
       <c r="C743" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D743" s="2">
         <v>577</v>
@@ -13773,7 +13767,7 @@
         <v>9</v>
       </c>
       <c r="C744" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D744" s="2">
         <v>578</v>
@@ -13787,7 +13781,7 @@
         <v>9</v>
       </c>
       <c r="C745" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D745" s="2">
         <v>579</v>
@@ -13801,7 +13795,7 @@
         <v>9</v>
       </c>
       <c r="C746" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D746" s="2">
         <v>580</v>
@@ -13815,7 +13809,7 @@
         <v>9</v>
       </c>
       <c r="C747" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D747" s="2">
         <v>581</v>
@@ -13829,7 +13823,7 @@
         <v>9</v>
       </c>
       <c r="C748" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D748" s="2">
         <v>582</v>
@@ -13843,7 +13837,7 @@
         <v>9</v>
       </c>
       <c r="C749" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D749" s="2">
         <v>583</v>
@@ -13857,7 +13851,7 @@
         <v>9</v>
       </c>
       <c r="C750" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D750" s="2">
         <v>584</v>
@@ -13871,7 +13865,7 @@
         <v>9</v>
       </c>
       <c r="C751" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D751" s="2">
         <v>585</v>
@@ -13899,7 +13893,7 @@
         <v>653</v>
       </c>
       <c r="C753" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D753" s="2">
         <v>586</v>
@@ -13927,7 +13921,7 @@
         <v>270</v>
       </c>
       <c r="C755" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D755" s="2">
         <v>587</v>
@@ -13955,7 +13949,7 @@
         <v>9</v>
       </c>
       <c r="C757" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D757" s="2">
         <v>588</v>
@@ -13969,7 +13963,7 @@
         <v>9</v>
       </c>
       <c r="C758" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D758" s="2">
         <v>589</v>
@@ -13983,7 +13977,7 @@
         <v>9</v>
       </c>
       <c r="C759" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D759" s="2">
         <v>590</v>
@@ -14011,7 +14005,7 @@
         <v>9</v>
       </c>
       <c r="C761" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D761" s="2">
         <v>592</v>
@@ -14039,7 +14033,7 @@
         <v>9</v>
       </c>
       <c r="C763" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D763" s="2">
         <v>594</v>
@@ -14053,7 +14047,7 @@
         <v>18</v>
       </c>
       <c r="C764" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D764" s="2">
         <v>595</v>
@@ -14067,7 +14061,7 @@
         <v>9</v>
       </c>
       <c r="C765" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D765" s="2">
         <v>596</v>
@@ -14081,7 +14075,7 @@
         <v>9</v>
       </c>
       <c r="C766" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D766" s="2">
         <v>597</v>
@@ -14095,7 +14089,7 @@
         <v>9</v>
       </c>
       <c r="C767" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D767" s="2">
         <v>598</v>
@@ -14109,7 +14103,7 @@
         <v>9</v>
       </c>
       <c r="C768" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D768" s="2">
         <v>599</v>
@@ -14123,7 +14117,7 @@
         <v>9</v>
       </c>
       <c r="C769" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D769" s="2">
         <v>600</v>
@@ -14137,7 +14131,7 @@
         <v>9</v>
       </c>
       <c r="C770" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D770" s="2">
         <v>601</v>
@@ -14151,7 +14145,7 @@
         <v>9</v>
       </c>
       <c r="C771" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D771" s="2">
         <v>602</v>
@@ -14165,7 +14159,7 @@
         <v>9</v>
       </c>
       <c r="C772" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D772" s="2">
         <v>603</v>
@@ -14193,7 +14187,7 @@
         <v>18</v>
       </c>
       <c r="C774" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D774" s="2">
         <v>605</v>
@@ -14207,7 +14201,7 @@
         <v>9</v>
       </c>
       <c r="C775" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D775" s="2">
         <v>606</v>
@@ -14221,7 +14215,7 @@
         <v>9</v>
       </c>
       <c r="C776" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D776" s="2">
         <v>607</v>
@@ -14249,7 +14243,7 @@
         <v>714</v>
       </c>
       <c r="C778" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D778" s="2">
         <v>608</v>
@@ -14305,7 +14299,7 @@
         <v>9</v>
       </c>
       <c r="C782" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D782" s="2">
         <v>609</v>
@@ -14319,7 +14313,7 @@
         <v>9</v>
       </c>
       <c r="C783" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D783" s="2">
         <v>610</v>
@@ -14333,7 +14327,7 @@
         <v>9</v>
       </c>
       <c r="C784" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D784" s="2">
         <v>611</v>
@@ -14347,7 +14341,7 @@
         <v>9</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D785" s="2">
         <v>612</v>
@@ -14361,7 +14355,7 @@
         <v>9</v>
       </c>
       <c r="C786" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D786" s="2">
         <v>613</v>
@@ -14375,7 +14369,7 @@
         <v>57</v>
       </c>
       <c r="C787" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D787" s="2">
         <v>614</v>
@@ -14389,7 +14383,7 @@
         <v>57</v>
       </c>
       <c r="C788" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D788" s="2">
         <v>614</v>
@@ -14403,7 +14397,7 @@
         <v>9</v>
       </c>
       <c r="C789" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D789" s="2">
         <v>615</v>
@@ -14417,7 +14411,7 @@
         <v>9</v>
       </c>
       <c r="C790" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D790" s="2">
         <v>616</v>
@@ -14431,7 +14425,7 @@
         <v>9</v>
       </c>
       <c r="C791" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D791" s="2">
         <v>617</v>
@@ -14445,7 +14439,7 @@
         <v>9</v>
       </c>
       <c r="C792" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D792" s="2">
         <v>618</v>
@@ -14459,7 +14453,7 @@
         <v>9</v>
       </c>
       <c r="C793" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D793" s="2">
         <v>619</v>
@@ -14473,7 +14467,7 @@
         <v>9</v>
       </c>
       <c r="C794" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D794" s="2">
         <v>620</v>
@@ -14487,7 +14481,7 @@
         <v>9</v>
       </c>
       <c r="C795" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D795" s="2">
         <v>621</v>
@@ -14501,7 +14495,7 @@
         <v>9</v>
       </c>
       <c r="C796" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D796" s="2">
         <v>622</v>
@@ -14515,7 +14509,7 @@
         <v>9</v>
       </c>
       <c r="C797" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D797" s="2">
         <v>623</v>
@@ -14529,7 +14523,7 @@
         <v>9</v>
       </c>
       <c r="C798" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D798" s="2">
         <v>624</v>
@@ -14543,7 +14537,7 @@
         <v>57</v>
       </c>
       <c r="C799" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D799" s="2">
         <v>625</v>
@@ -14557,7 +14551,7 @@
         <v>57</v>
       </c>
       <c r="C800" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D800" s="2">
         <v>625</v>
@@ -14627,7 +14621,7 @@
         <v>9</v>
       </c>
       <c r="C805" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D805" s="2">
         <v>627</v>
@@ -14683,7 +14677,7 @@
         <v>88</v>
       </c>
       <c r="C809" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D809" s="2">
         <v>629</v>
@@ -14711,7 +14705,7 @@
         <v>9</v>
       </c>
       <c r="C811" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D811" s="2">
         <v>630</v>
@@ -14725,7 +14719,7 @@
         <v>9</v>
       </c>
       <c r="C812" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D812" s="2">
         <v>631</v>
@@ -14739,7 +14733,7 @@
         <v>9</v>
       </c>
       <c r="C813" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D813" s="2">
         <v>632</v>
@@ -14753,7 +14747,7 @@
         <v>9</v>
       </c>
       <c r="C814" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D814" s="2">
         <v>633</v>
@@ -14767,7 +14761,7 @@
         <v>9</v>
       </c>
       <c r="C815" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D815" s="2">
         <v>634</v>
@@ -14781,7 +14775,7 @@
         <v>9</v>
       </c>
       <c r="C816" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D816" s="2">
         <v>635</v>
@@ -14795,7 +14789,7 @@
         <v>9</v>
       </c>
       <c r="C817" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D817" s="2">
         <v>636</v>
@@ -14809,7 +14803,7 @@
         <v>18</v>
       </c>
       <c r="C818" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D818" s="2">
         <v>637</v>
@@ -14823,7 +14817,7 @@
         <v>9</v>
       </c>
       <c r="C819" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D819" s="2">
         <v>638</v>
@@ -14837,7 +14831,7 @@
         <v>9</v>
       </c>
       <c r="C820" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D820" s="2">
         <v>639</v>
@@ -14851,7 +14845,7 @@
         <v>9</v>
       </c>
       <c r="C821" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D821" s="2">
         <v>640</v>
@@ -14865,7 +14859,7 @@
         <v>9</v>
       </c>
       <c r="C822" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D822" s="2">
         <v>641</v>
@@ -14879,7 +14873,7 @@
         <v>9</v>
       </c>
       <c r="C823" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D823" s="2">
         <v>642</v>
@@ -14893,7 +14887,7 @@
         <v>9</v>
       </c>
       <c r="C824" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D824" s="2">
         <v>643</v>
@@ -14907,7 +14901,7 @@
         <v>18</v>
       </c>
       <c r="C825" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D825" s="2">
         <v>644</v>
@@ -14921,7 +14915,7 @@
         <v>9</v>
       </c>
       <c r="C826" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D826" s="2">
         <v>645</v>
@@ -14935,7 +14929,7 @@
         <v>9</v>
       </c>
       <c r="C827" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D827" s="2">
         <v>646</v>
@@ -14949,7 +14943,7 @@
         <v>9</v>
       </c>
       <c r="C828" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D828" s="2">
         <v>647</v>
@@ -14963,7 +14957,7 @@
         <v>9</v>
       </c>
       <c r="C829" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D829" s="2">
         <v>648</v>
@@ -14977,7 +14971,7 @@
         <v>9</v>
       </c>
       <c r="C830" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D830" s="2">
         <v>649</v>
@@ -14991,7 +14985,7 @@
         <v>270</v>
       </c>
       <c r="C831" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D831" s="2">
         <v>650</v>
@@ -15047,7 +15041,7 @@
         <v>330</v>
       </c>
       <c r="C835" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D835" s="2">
         <v>652</v>
@@ -15075,7 +15069,7 @@
         <v>9</v>
       </c>
       <c r="C837" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D837" s="2">
         <v>653</v>
@@ -15089,7 +15083,7 @@
         <v>9</v>
       </c>
       <c r="C838" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D838" s="2">
         <v>654</v>
@@ -15103,7 +15097,7 @@
         <v>9</v>
       </c>
       <c r="C839" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D839" s="2">
         <v>655</v>
@@ -15117,7 +15111,7 @@
         <v>9</v>
       </c>
       <c r="C840" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D840" s="2">
         <v>656</v>
@@ -15131,7 +15125,7 @@
         <v>9</v>
       </c>
       <c r="C841" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D841" s="2">
         <v>657</v>
@@ -15145,7 +15139,7 @@
         <v>9</v>
       </c>
       <c r="C842" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D842" s="2">
         <v>658</v>
@@ -15159,7 +15153,7 @@
         <v>9</v>
       </c>
       <c r="C843" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D843" s="2">
         <v>659</v>
@@ -15173,7 +15167,7 @@
         <v>9</v>
       </c>
       <c r="C844" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D844" s="2">
         <v>660</v>
@@ -15187,7 +15181,7 @@
         <v>9</v>
       </c>
       <c r="C845" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D845" s="2">
         <v>661</v>
@@ -15201,7 +15195,7 @@
         <v>9</v>
       </c>
       <c r="C846" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D846" s="2">
         <v>662</v>
@@ -15215,7 +15209,7 @@
         <v>9</v>
       </c>
       <c r="C847" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D847" s="2">
         <v>663</v>
@@ -15229,7 +15223,7 @@
         <v>9</v>
       </c>
       <c r="C848" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D848" s="2">
         <v>664</v>
@@ -15243,7 +15237,7 @@
         <v>9</v>
       </c>
       <c r="C849" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D849" s="2">
         <v>665</v>
@@ -15257,7 +15251,7 @@
         <v>9</v>
       </c>
       <c r="C850" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D850" s="2">
         <v>666</v>
@@ -15271,7 +15265,7 @@
         <v>9</v>
       </c>
       <c r="C851" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D851" s="2">
         <v>667</v>
@@ -15285,7 +15279,7 @@
         <v>9</v>
       </c>
       <c r="C852" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D852" s="2">
         <v>668</v>
@@ -15299,7 +15293,7 @@
         <v>9</v>
       </c>
       <c r="C853" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D853" s="2">
         <v>669</v>
@@ -15313,7 +15307,7 @@
         <v>9</v>
       </c>
       <c r="C854" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D854" s="2">
         <v>670</v>
@@ -15327,7 +15321,7 @@
         <v>9</v>
       </c>
       <c r="C855" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D855" s="2">
         <v>671</v>
@@ -15341,7 +15335,7 @@
         <v>9</v>
       </c>
       <c r="C856" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D856" s="2">
         <v>672</v>
@@ -15369,7 +15363,7 @@
         <v>507</v>
       </c>
       <c r="C858" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D858" s="2">
         <v>673</v>
@@ -15383,7 +15377,7 @@
         <v>57</v>
       </c>
       <c r="C859" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D859" s="2">
         <v>674</v>
@@ -15397,7 +15391,7 @@
         <v>57</v>
       </c>
       <c r="C860" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D860" s="2">
         <v>674</v>
@@ -15411,7 +15405,7 @@
         <v>9</v>
       </c>
       <c r="C861" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D861" s="2">
         <v>675</v>
@@ -15425,7 +15419,7 @@
         <v>9</v>
       </c>
       <c r="C862" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D862" s="2">
         <v>676</v>
@@ -15439,7 +15433,7 @@
         <v>9</v>
       </c>
       <c r="C863" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D863" s="2">
         <v>677</v>
@@ -15453,7 +15447,7 @@
         <v>9</v>
       </c>
       <c r="C864" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D864" s="2">
         <v>678</v>
@@ -15467,7 +15461,7 @@
         <v>9</v>
       </c>
       <c r="C865" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D865" s="2">
         <v>679</v>
@@ -15481,7 +15475,7 @@
         <v>9</v>
       </c>
       <c r="C866" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D866" s="2">
         <v>680</v>
@@ -15495,7 +15489,7 @@
         <v>9</v>
       </c>
       <c r="C867" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D867" s="2">
         <v>681</v>
@@ -15509,7 +15503,7 @@
         <v>9</v>
       </c>
       <c r="C868" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D868" s="2">
         <v>682</v>
@@ -15523,7 +15517,7 @@
         <v>9</v>
       </c>
       <c r="C869" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D869" s="2">
         <v>683</v>
@@ -15537,7 +15531,7 @@
         <v>9</v>
       </c>
       <c r="C870" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D870" s="2">
         <v>684</v>
@@ -15551,7 +15545,7 @@
         <v>9</v>
       </c>
       <c r="C871" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D871" s="2">
         <v>685</v>
@@ -15565,7 +15559,7 @@
         <v>88</v>
       </c>
       <c r="C872" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D872" s="2">
         <v>686</v>
@@ -15593,7 +15587,7 @@
         <v>9</v>
       </c>
       <c r="C874" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D874" s="2">
         <v>687</v>
@@ -15607,7 +15601,7 @@
         <v>9</v>
       </c>
       <c r="C875" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D875" s="2">
         <v>688</v>
@@ -15621,7 +15615,7 @@
         <v>9</v>
       </c>
       <c r="C876" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D876" s="2">
         <v>689</v>
@@ -15635,7 +15629,7 @@
         <v>9</v>
       </c>
       <c r="C877" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D877" s="2">
         <v>690</v>
@@ -15649,7 +15643,7 @@
         <v>9</v>
       </c>
       <c r="C878" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D878" s="2">
         <v>691</v>
@@ -15691,7 +15685,7 @@
         <v>9</v>
       </c>
       <c r="C881" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D881" s="2">
         <v>693</v>
@@ -15705,7 +15699,7 @@
         <v>9</v>
       </c>
       <c r="C882" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D882" s="2">
         <v>694</v>
@@ -15719,7 +15713,7 @@
         <v>9</v>
       </c>
       <c r="C883" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D883" s="2">
         <v>695</v>
@@ -15733,7 +15727,7 @@
         <v>266</v>
       </c>
       <c r="C884" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D884" s="2">
         <v>696</v>
@@ -15761,7 +15755,7 @@
         <v>9</v>
       </c>
       <c r="C886" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D886" s="2">
         <v>697</v>
@@ -15775,7 +15769,7 @@
         <v>9</v>
       </c>
       <c r="C887" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D887" s="2">
         <v>698</v>
@@ -15789,7 +15783,7 @@
         <v>9</v>
       </c>
       <c r="C888" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D888" s="2">
         <v>699</v>
@@ -15803,7 +15797,7 @@
         <v>9</v>
       </c>
       <c r="C889" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D889" s="2">
         <v>700</v>
@@ -15817,7 +15811,7 @@
         <v>9</v>
       </c>
       <c r="C890" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D890" s="2">
         <v>701</v>
@@ -15831,7 +15825,7 @@
         <v>9</v>
       </c>
       <c r="C891" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D891" s="2">
         <v>702</v>
@@ -15845,7 +15839,7 @@
         <v>9</v>
       </c>
       <c r="C892" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D892" s="2">
         <v>703</v>
@@ -15859,7 +15853,7 @@
         <v>18</v>
       </c>
       <c r="C893" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D893" s="2">
         <v>704</v>
@@ -15873,7 +15867,7 @@
         <v>9</v>
       </c>
       <c r="C894" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D894" s="2">
         <v>705</v>
@@ -15887,7 +15881,7 @@
         <v>9</v>
       </c>
       <c r="C895" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D895" s="2">
         <v>706</v>
@@ -15901,7 +15895,7 @@
         <v>9</v>
       </c>
       <c r="C896" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D896" s="2">
         <v>707</v>
@@ -15915,7 +15909,7 @@
         <v>9</v>
       </c>
       <c r="C897" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D897" s="2">
         <v>708</v>
@@ -15929,7 +15923,7 @@
         <v>9</v>
       </c>
       <c r="C898" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D898" s="2">
         <v>709</v>
@@ -15943,7 +15937,7 @@
         <v>9</v>
       </c>
       <c r="C899" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D899" s="2">
         <v>710</v>
@@ -15957,7 +15951,7 @@
         <v>9</v>
       </c>
       <c r="C900" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D900" s="2">
         <v>711</v>
@@ -15971,7 +15965,7 @@
         <v>9</v>
       </c>
       <c r="C901" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D901" s="2">
         <v>712</v>
@@ -15985,7 +15979,7 @@
         <v>9</v>
       </c>
       <c r="C902" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D902" s="2">
         <v>713</v>
@@ -15999,7 +15993,7 @@
         <v>9</v>
       </c>
       <c r="C903" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D903" s="2">
         <v>714</v>
@@ -16013,7 +16007,7 @@
         <v>9</v>
       </c>
       <c r="C904" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D904" s="2">
         <v>715</v>
@@ -16027,7 +16021,7 @@
         <v>9</v>
       </c>
       <c r="C905" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D905" s="2">
         <v>716</v>
@@ -16041,7 +16035,7 @@
         <v>9</v>
       </c>
       <c r="C906" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D906" s="2">
         <v>717</v>
@@ -16055,7 +16049,7 @@
         <v>9</v>
       </c>
       <c r="C907" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D907" s="2">
         <v>718</v>
@@ -16069,7 +16063,7 @@
         <v>9</v>
       </c>
       <c r="C908" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D908" s="2">
         <v>719</v>
@@ -16083,7 +16077,7 @@
         <v>9</v>
       </c>
       <c r="C909" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D909" s="2">
         <v>720</v>
@@ -16097,7 +16091,7 @@
         <v>9</v>
       </c>
       <c r="C910" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D910" s="2">
         <v>721</v>
@@ -16111,7 +16105,7 @@
         <v>9</v>
       </c>
       <c r="C911" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D911" s="2">
         <v>722</v>
@@ -16125,7 +16119,7 @@
         <v>9</v>
       </c>
       <c r="C912" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D912" s="2">
         <v>723</v>
@@ -16139,7 +16133,7 @@
         <v>9</v>
       </c>
       <c r="C913" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D913" s="2">
         <v>724</v>
@@ -16153,7 +16147,7 @@
         <v>9</v>
       </c>
       <c r="C914" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D914" s="2">
         <v>725</v>
@@ -16167,7 +16161,7 @@
         <v>9</v>
       </c>
       <c r="C915" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D915" s="2">
         <v>726</v>
@@ -16181,7 +16175,7 @@
         <v>9</v>
       </c>
       <c r="C916" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D916" s="2">
         <v>727</v>
@@ -16195,7 +16189,7 @@
         <v>9</v>
       </c>
       <c r="C917" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D917" s="2">
         <v>728</v>
@@ -16209,7 +16203,7 @@
         <v>9</v>
       </c>
       <c r="C918" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D918" s="2">
         <v>729</v>
@@ -16223,7 +16217,7 @@
         <v>9</v>
       </c>
       <c r="C919" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D919" s="2">
         <v>730</v>
@@ -16237,7 +16231,7 @@
         <v>9</v>
       </c>
       <c r="C920" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D920" s="2">
         <v>731</v>
@@ -16251,7 +16245,7 @@
         <v>9</v>
       </c>
       <c r="C921" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D921" s="2">
         <v>732</v>
@@ -16265,7 +16259,7 @@
         <v>9</v>
       </c>
       <c r="C922" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D922" s="2">
         <v>733</v>
@@ -16279,7 +16273,7 @@
         <v>9</v>
       </c>
       <c r="C923" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D923" s="2">
         <v>734</v>
@@ -16293,7 +16287,7 @@
         <v>9</v>
       </c>
       <c r="C924" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D924" s="2">
         <v>735</v>
@@ -16307,7 +16301,7 @@
         <v>9</v>
       </c>
       <c r="C925" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D925" s="2">
         <v>736</v>
@@ -16321,7 +16315,7 @@
         <v>9</v>
       </c>
       <c r="C926" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D926" s="2">
         <v>737</v>
@@ -16335,7 +16329,7 @@
         <v>9</v>
       </c>
       <c r="C927" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D927" s="2">
         <v>738</v>
@@ -16349,7 +16343,7 @@
         <v>9</v>
       </c>
       <c r="C928" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D928" s="2">
         <v>739</v>
@@ -16363,7 +16357,7 @@
         <v>9</v>
       </c>
       <c r="C929" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D929" s="2">
         <v>740</v>
@@ -16377,7 +16371,7 @@
         <v>9</v>
       </c>
       <c r="C930" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D930" s="2">
         <v>741</v>
@@ -16391,7 +16385,7 @@
         <v>9</v>
       </c>
       <c r="C931" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D931" s="2">
         <v>742</v>
@@ -16405,7 +16399,7 @@
         <v>9</v>
       </c>
       <c r="C932" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D932" s="2">
         <v>743</v>
@@ -16419,7 +16413,7 @@
         <v>9</v>
       </c>
       <c r="C933" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D933" s="2">
         <v>744</v>
@@ -16433,7 +16427,7 @@
         <v>9</v>
       </c>
       <c r="C934" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D934" s="2">
         <v>745</v>
@@ -16447,7 +16441,7 @@
         <v>9</v>
       </c>
       <c r="C935" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D935" s="2">
         <v>746</v>
@@ -16461,7 +16455,7 @@
         <v>88</v>
       </c>
       <c r="C936" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D936" s="2">
         <v>747</v>
@@ -16489,7 +16483,7 @@
         <v>9</v>
       </c>
       <c r="C938" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D938" s="2">
         <v>748</v>
@@ -16503,7 +16497,7 @@
         <v>9</v>
       </c>
       <c r="C939" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D939" s="2">
         <v>749</v>
@@ -16531,7 +16525,7 @@
         <v>507</v>
       </c>
       <c r="C941" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D941" s="2">
         <v>750</v>
@@ -16545,7 +16539,7 @@
         <v>9</v>
       </c>
       <c r="C942" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D942" s="2">
         <v>751</v>
@@ -16573,7 +16567,7 @@
         <v>82</v>
       </c>
       <c r="C944" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D944" s="2">
         <v>752</v>
@@ -16587,7 +16581,7 @@
         <v>9</v>
       </c>
       <c r="C945" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D945" s="2">
         <v>753</v>
@@ -16601,7 +16595,7 @@
         <v>18</v>
       </c>
       <c r="C946" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D946" s="2">
         <v>754</v>
@@ -16615,7 +16609,7 @@
         <v>9</v>
       </c>
       <c r="C947" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D947" s="2">
         <v>755</v>
@@ -16629,7 +16623,7 @@
         <v>9</v>
       </c>
       <c r="C948" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D948" s="2">
         <v>756</v>
@@ -16643,7 +16637,7 @@
         <v>9</v>
       </c>
       <c r="C949" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D949" s="2">
         <v>757</v>
@@ -16657,7 +16651,7 @@
         <v>9</v>
       </c>
       <c r="C950" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D950" s="2">
         <v>758</v>
@@ -16671,7 +16665,7 @@
         <v>9</v>
       </c>
       <c r="C951" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D951" s="2">
         <v>759</v>
@@ -16685,7 +16679,7 @@
         <v>9</v>
       </c>
       <c r="C952" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D952" s="2">
         <v>760</v>
@@ -16699,7 +16693,7 @@
         <v>9</v>
       </c>
       <c r="C953" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D953" s="2">
         <v>761</v>
@@ -16727,7 +16721,7 @@
         <v>871</v>
       </c>
       <c r="C955" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D955" s="2">
         <v>762</v>
@@ -16783,7 +16777,7 @@
         <v>9</v>
       </c>
       <c r="C959" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D959" s="2">
         <v>763</v>
@@ -16797,7 +16791,7 @@
         <v>9</v>
       </c>
       <c r="C960" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D960" s="2">
         <v>764</v>
@@ -16811,7 +16805,7 @@
         <v>9</v>
       </c>
       <c r="C961" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D961" s="2">
         <v>765</v>
@@ -16839,7 +16833,7 @@
         <v>57</v>
       </c>
       <c r="C963" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D963" s="2">
         <v>767</v>
@@ -16853,7 +16847,7 @@
         <v>57</v>
       </c>
       <c r="C964" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D964" s="2">
         <v>767</v>
@@ -16867,7 +16861,7 @@
         <v>9</v>
       </c>
       <c r="C965" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D965" s="2">
         <v>768</v>
@@ -16895,7 +16889,7 @@
         <v>274</v>
       </c>
       <c r="C967" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D967" s="2">
         <v>769</v>
@@ -16923,7 +16917,7 @@
         <v>9</v>
       </c>
       <c r="C969" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D969" s="2">
         <v>770</v>
@@ -16937,7 +16931,7 @@
         <v>9</v>
       </c>
       <c r="C970" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D970" s="2">
         <v>771</v>
@@ -16951,7 +16945,7 @@
         <v>9</v>
       </c>
       <c r="C971" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D971" s="2">
         <v>772</v>
@@ -16965,7 +16959,7 @@
         <v>9</v>
       </c>
       <c r="C972" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D972" s="2">
         <v>773</v>
@@ -16979,7 +16973,7 @@
         <v>9</v>
       </c>
       <c r="C973" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D973" s="2">
         <v>774</v>
@@ -16993,7 +16987,7 @@
         <v>9</v>
       </c>
       <c r="C974" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D974" s="2">
         <v>775</v>
@@ -17021,7 +17015,7 @@
         <v>9</v>
       </c>
       <c r="C976" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D976" s="2">
         <v>777</v>
@@ -17035,7 +17029,7 @@
         <v>9</v>
       </c>
       <c r="C977" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D977" s="2">
         <v>778</v>
@@ -17049,7 +17043,7 @@
         <v>890</v>
       </c>
       <c r="C978" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D978" s="2">
         <v>779</v>
@@ -17091,7 +17085,7 @@
         <v>9</v>
       </c>
       <c r="C981" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D981" s="2">
         <v>780</v>
@@ -17105,7 +17099,7 @@
         <v>9</v>
       </c>
       <c r="C982" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D982" s="2">
         <v>781</v>
@@ -17119,7 +17113,7 @@
         <v>57</v>
       </c>
       <c r="C983" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D983" s="2">
         <v>782</v>
@@ -17133,7 +17127,7 @@
         <v>57</v>
       </c>
       <c r="C984" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D984" s="2">
         <v>782</v>
@@ -17147,7 +17141,7 @@
         <v>9</v>
       </c>
       <c r="C985" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D985" s="2">
         <v>783</v>
@@ -17161,7 +17155,7 @@
         <v>9</v>
       </c>
       <c r="C986" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D986" s="2">
         <v>784</v>
@@ -17175,7 +17169,7 @@
         <v>9</v>
       </c>
       <c r="C987" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D987" s="2">
         <v>785</v>
@@ -17189,7 +17183,7 @@
         <v>9</v>
       </c>
       <c r="C988" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D988" s="2">
         <v>786</v>
@@ -17203,7 +17197,7 @@
         <v>9</v>
       </c>
       <c r="C989" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D989" s="2">
         <v>787</v>
@@ -17217,7 +17211,7 @@
         <v>9</v>
       </c>
       <c r="C990" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D990" s="2">
         <v>788</v>
@@ -17231,7 +17225,7 @@
         <v>9</v>
       </c>
       <c r="C991" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D991" s="2">
         <v>789</v>
@@ -17245,7 +17239,7 @@
         <v>9</v>
       </c>
       <c r="C992" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D992" s="2">
         <v>790</v>
@@ -17259,7 +17253,7 @@
         <v>9</v>
       </c>
       <c r="C993" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D993" s="2">
         <v>791</v>
@@ -17287,7 +17281,7 @@
         <v>9</v>
       </c>
       <c r="C995" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D995" s="2">
         <v>793</v>
@@ -17301,7 +17295,7 @@
         <v>907</v>
       </c>
       <c r="C996" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D996" s="2">
         <v>794</v>
@@ -17329,7 +17323,7 @@
         <v>9</v>
       </c>
       <c r="C998" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D998" s="2">
         <v>795</v>
@@ -17343,7 +17337,7 @@
         <v>9</v>
       </c>
       <c r="C999" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D999" s="2">
         <v>796</v>
@@ -17357,7 +17351,7 @@
         <v>9</v>
       </c>
       <c r="C1000" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1000" s="2">
         <v>797</v>
@@ -17371,7 +17365,7 @@
         <v>9</v>
       </c>
       <c r="C1001" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1001" s="2">
         <v>798</v>
@@ -17385,7 +17379,7 @@
         <v>9</v>
       </c>
       <c r="C1002" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1002" s="2">
         <v>799</v>
@@ -17399,7 +17393,7 @@
         <v>9</v>
       </c>
       <c r="C1003" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1003" s="2">
         <v>800</v>
@@ -17413,7 +17407,7 @@
         <v>9</v>
       </c>
       <c r="C1004" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1004" s="2">
         <v>801</v>
@@ -17427,7 +17421,7 @@
         <v>9</v>
       </c>
       <c r="C1005" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1005" s="2">
         <v>802</v>
@@ -17441,7 +17435,7 @@
         <v>545</v>
       </c>
       <c r="C1006" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1006" s="2">
         <v>803</v>
@@ -17455,7 +17449,7 @@
         <v>545</v>
       </c>
       <c r="C1007" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D1007" s="2">
         <v>803</v>
@@ -17483,7 +17477,7 @@
         <v>9</v>
       </c>
       <c r="C1009" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1009" s="2">
         <v>804</v>
@@ -17497,7 +17491,7 @@
         <v>919</v>
       </c>
       <c r="C1010" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1010" s="2">
         <v>805</v>
@@ -17539,7 +17533,7 @@
         <v>9</v>
       </c>
       <c r="C1013" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1013" s="2">
         <v>806</v>
@@ -17553,7 +17547,7 @@
         <v>166</v>
       </c>
       <c r="C1014" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1014" s="2">
         <v>807</v>
@@ -17567,7 +17561,7 @@
         <v>166</v>
       </c>
       <c r="C1015" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D1015" s="2">
         <v>807</v>
@@ -17595,7 +17589,7 @@
         <v>9</v>
       </c>
       <c r="C1017" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1017" s="2">
         <v>808</v>
@@ -17623,7 +17617,7 @@
         <v>507</v>
       </c>
       <c r="C1019" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1019" s="2">
         <v>809</v>
@@ -17637,7 +17631,7 @@
         <v>9</v>
       </c>
       <c r="C1020" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1020" s="2">
         <v>810</v>
@@ -17651,7 +17645,7 @@
         <v>9</v>
       </c>
       <c r="C1021" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1021" s="2">
         <v>811</v>
@@ -17665,7 +17659,7 @@
         <v>9</v>
       </c>
       <c r="C1022" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1022" s="2">
         <v>812</v>
@@ -17679,7 +17673,7 @@
         <v>9</v>
       </c>
       <c r="C1023" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1023" s="2">
         <v>813</v>
@@ -17693,7 +17687,7 @@
         <v>9</v>
       </c>
       <c r="C1024" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1024" s="2">
         <v>814</v>
@@ -17707,7 +17701,7 @@
         <v>9</v>
       </c>
       <c r="C1025" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1025" s="2">
         <v>815</v>
@@ -17721,7 +17715,7 @@
         <v>9</v>
       </c>
       <c r="C1026" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1026" s="2">
         <v>816</v>
@@ -17735,7 +17729,7 @@
         <v>9</v>
       </c>
       <c r="C1027" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1027" s="2">
         <v>817</v>
@@ -17749,7 +17743,7 @@
         <v>9</v>
       </c>
       <c r="C1028" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1028" s="2">
         <v>818</v>
@@ -17763,7 +17757,7 @@
         <v>934</v>
       </c>
       <c r="C1029" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1029" s="2">
         <v>819</v>
@@ -17791,7 +17785,7 @@
         <v>934</v>
       </c>
       <c r="C1031" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D1031" s="2">
         <v>819</v>
@@ -17819,7 +17813,7 @@
         <v>9</v>
       </c>
       <c r="C1033" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1033" s="2">
         <v>820</v>
@@ -17833,7 +17827,7 @@
         <v>9</v>
       </c>
       <c r="C1034" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1034" s="2">
         <v>821</v>
@@ -17847,7 +17841,7 @@
         <v>9</v>
       </c>
       <c r="C1035" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1035" s="2">
         <v>822</v>
@@ -17861,7 +17855,7 @@
         <v>9</v>
       </c>
       <c r="C1036" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1036" s="2">
         <v>823</v>
@@ -17889,7 +17883,7 @@
         <v>9</v>
       </c>
       <c r="C1038" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1038" s="2">
         <v>825</v>
@@ -17903,7 +17897,7 @@
         <v>407</v>
       </c>
       <c r="C1039" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1039" s="2">
         <v>826</v>
@@ -17931,7 +17925,7 @@
         <v>407</v>
       </c>
       <c r="C1041" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D1041" s="2">
         <v>826</v>
@@ -17945,7 +17939,7 @@
         <v>9</v>
       </c>
       <c r="C1042" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1042" s="2">
         <v>827</v>
@@ -17959,7 +17953,7 @@
         <v>9</v>
       </c>
       <c r="C1043" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1043" s="2">
         <v>828</v>
@@ -17973,7 +17967,7 @@
         <v>545</v>
       </c>
       <c r="C1044" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1044" s="2">
         <v>829</v>
@@ -17987,7 +17981,7 @@
         <v>545</v>
       </c>
       <c r="C1045" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D1045" s="2">
         <v>829</v>
@@ -18015,7 +18009,7 @@
         <v>18</v>
       </c>
       <c r="C1047" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D1047" s="2">
         <v>830</v>
@@ -18029,7 +18023,7 @@
         <v>9</v>
       </c>
       <c r="C1048" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1048" s="2">
         <v>831</v>
@@ -18057,7 +18051,7 @@
         <v>9</v>
       </c>
       <c r="C1050" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1050" s="2">
         <v>833</v>
@@ -18071,7 +18065,7 @@
         <v>9</v>
       </c>
       <c r="C1051" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1051" s="2">
         <v>834</v>
@@ -18085,7 +18079,7 @@
         <v>951</v>
       </c>
       <c r="C1052" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1052" s="2">
         <v>835</v>
@@ -18141,7 +18135,7 @@
         <v>57</v>
       </c>
       <c r="C1056" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1056" s="2">
         <v>836</v>
@@ -18155,7 +18149,7 @@
         <v>57</v>
       </c>
       <c r="C1057" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D1057" s="2">
         <v>836</v>
@@ -18169,7 +18163,7 @@
         <v>9</v>
       </c>
       <c r="C1058" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1058" s="2">
         <v>837</v>
@@ -18183,7 +18177,7 @@
         <v>166</v>
       </c>
       <c r="C1059" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1059" s="2">
         <v>838</v>
@@ -18197,7 +18191,7 @@
         <v>166</v>
       </c>
       <c r="C1060" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D1060" s="2">
         <v>838</v>
@@ -18225,7 +18219,7 @@
         <v>9</v>
       </c>
       <c r="C1062" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1062" s="2">
         <v>839</v>
@@ -18239,7 +18233,7 @@
         <v>9</v>
       </c>
       <c r="C1063" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1063" s="2">
         <v>840</v>
@@ -18253,7 +18247,7 @@
         <v>9</v>
       </c>
       <c r="C1064" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1064" s="2">
         <v>841</v>
@@ -18267,7 +18261,7 @@
         <v>9</v>
       </c>
       <c r="C1065" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1065" s="2">
         <v>842</v>
@@ -18281,7 +18275,7 @@
         <v>9</v>
       </c>
       <c r="C1066" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1066" s="2">
         <v>843</v>
@@ -18295,7 +18289,7 @@
         <v>961</v>
       </c>
       <c r="C1067" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1067" s="2">
         <v>844</v>
@@ -18365,7 +18359,7 @@
         <v>963</v>
       </c>
       <c r="C1072" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1072" s="2">
         <v>845</v>
@@ -18407,7 +18401,7 @@
         <v>9</v>
       </c>
       <c r="C1075" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1075" s="2">
         <v>846</v>
@@ -18421,7 +18415,7 @@
         <v>9</v>
       </c>
       <c r="C1076" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1076" s="2">
         <v>847</v>
@@ -18435,7 +18429,7 @@
         <v>9</v>
       </c>
       <c r="C1077" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1077" s="2">
         <v>848</v>
@@ -18449,7 +18443,7 @@
         <v>9</v>
       </c>
       <c r="C1078" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1078" s="2">
         <v>849</v>
@@ -18463,7 +18457,7 @@
         <v>57</v>
       </c>
       <c r="C1079" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1079" s="2">
         <v>850</v>
@@ -18477,7 +18471,7 @@
         <v>57</v>
       </c>
       <c r="C1080" s="4" t="s">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="D1080" s="2">
         <v>850</v>
@@ -18491,7 +18485,7 @@
         <v>9</v>
       </c>
       <c r="C1081" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1081" s="2">
         <v>851</v>
@@ -18505,7 +18499,7 @@
         <v>9</v>
       </c>
       <c r="C1082" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1082" s="2">
         <v>852</v>
@@ -18519,7 +18513,7 @@
         <v>9</v>
       </c>
       <c r="C1083" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1083" s="2">
         <v>853</v>
@@ -18533,7 +18527,7 @@
         <v>231</v>
       </c>
       <c r="C1084" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1084" s="2">
         <v>854</v>
@@ -18561,7 +18555,7 @@
         <v>9</v>
       </c>
       <c r="C1086" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1086" s="2">
         <v>855</v>
@@ -18575,7 +18569,7 @@
         <v>372</v>
       </c>
       <c r="C1087" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1087" s="2">
         <v>856</v>
@@ -18603,7 +18597,7 @@
         <v>9</v>
       </c>
       <c r="C1089" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1089" s="2">
         <v>857</v>
@@ -18617,7 +18611,7 @@
         <v>977</v>
       </c>
       <c r="C1090" s="4" t="s">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="D1090" s="2">
         <v>858</v>
